--- a/data/input/absenteeism_data_44.xlsx
+++ b/data/input/absenteeism_data_44.xlsx
@@ -476,292 +476,292 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>52084</v>
+        <v>25384</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Valentina Nunes</t>
+          <t>Sr. Luiz Otávio Freitas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45102</v>
+        <v>45090</v>
       </c>
       <c r="G2" t="n">
-        <v>7218.02</v>
+        <v>12117.41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>34291</v>
+        <v>34936</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dr. Heitor Melo</t>
+          <t>Alana Aragão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45101</v>
       </c>
       <c r="G3" t="n">
-        <v>10561.49</v>
+        <v>2617.54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>18282</v>
+        <v>83049</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Diego Freitas</t>
+          <t>Catarina Pires</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45079</v>
+        <v>45091</v>
       </c>
       <c r="G4" t="n">
-        <v>2620.45</v>
+        <v>9269.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>83712</v>
+        <v>10261</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Miguel Lima</t>
+          <t>Daniel da Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45089</v>
+        <v>45099</v>
       </c>
       <c r="G5" t="n">
-        <v>3679.58</v>
+        <v>11832.41</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20546</v>
+        <v>89220</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luiza Barros</t>
+          <t>Sra. Ana Barros</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45082</v>
       </c>
       <c r="G6" t="n">
-        <v>5731.52</v>
+        <v>11449.22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>43625</v>
+        <v>71175</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Marcela da Mota</t>
+          <t>Maysa Ferreira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45093</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>9660.969999999999</v>
+        <v>5805.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>31380</v>
+        <v>73156</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Emilly Moraes</t>
+          <t>Dr. Bruno Monteiro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45085</v>
+        <v>45095</v>
       </c>
       <c r="G8" t="n">
-        <v>8807.790000000001</v>
+        <v>6645.38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>77637</v>
+        <v>98488</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. Anthony Sales</t>
+          <t>Yasmin Vieira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45105</v>
+        <v>45083</v>
       </c>
       <c r="G9" t="n">
-        <v>10933.94</v>
+        <v>11017.36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>28604</v>
+        <v>59149</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Thiago da Paz</t>
+          <t>Srta. Rebeca Cunha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
         <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45083</v>
+        <v>45085</v>
       </c>
       <c r="G10" t="n">
-        <v>10800.83</v>
+        <v>5871.09</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4615</v>
+        <v>34614</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Yasmin Silva</t>
+          <t>Luiz Henrique Cunha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45087</v>
+        <v>45086</v>
       </c>
       <c r="G11" t="n">
-        <v>8710.77</v>
+        <v>6187.3</v>
       </c>
     </row>
   </sheetData>
